--- a/data/USDA precio soja u$d x bushel SOYBEANS - PRICE RECEIVED, MEASURED listo.xlsx
+++ b/data/USDA precio soja u$d x bushel SOYBEANS - PRICE RECEIVED, MEASURED listo.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/GoogleDrive-113626893456251289633/Mi unidad/UCA Sincronizado/UCA Proyecto de TESIS/Estadísticas/USDA/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/GoogleDrive-113626893456251289633/Mi unidad/UCA Sincronizado/UCA Proyecto de TESIS/Estadísticas/Github/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9A3863D-1674-CA46-BB40-A041BD70DDB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F8589D2-CA44-1D46-91C9-37C520C4811C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="15960" windowHeight="14900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1324,10 +1324,10 @@
   <dimension ref="A1:C208"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="183" zoomScaleNormal="210" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C198" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C198" sqref="C198"/>
+      <selection pane="bottomRight" activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.33203125" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1351,1135 +1351,1135 @@
     </row>
     <row r="2" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="3">
-        <v>2021</v>
+        <v>1970</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>2</v>
       </c>
       <c r="C2" s="5">
-        <v>12.266666666666666</v>
+        <v>2.3933333333333331</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="3">
-        <v>2021</v>
+        <v>1970</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>1</v>
       </c>
       <c r="C3" s="5">
-        <v>14.4</v>
+        <v>2.5333333333333332</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="3">
-        <v>2021</v>
+        <v>1970</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>3</v>
       </c>
       <c r="C4" s="5">
-        <v>13.333333333333334</v>
+        <v>2.6766666666666672</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="3">
-        <v>2020</v>
+        <v>1970</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C5" s="5">
-        <v>8.84</v>
+        <v>2.8000000000000003</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="3">
-        <v>2020</v>
+        <v>1971</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C6" s="5">
-        <v>8.34</v>
+        <v>2.8966666666666665</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="3">
-        <v>2020</v>
+        <v>1971</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C7" s="5">
-        <v>8.7999999999999989</v>
+        <v>2.8766666666666669</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="3">
-        <v>2020</v>
+        <v>1971</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C8" s="5">
-        <v>10.176666666666668</v>
+        <v>3.0733333333333328</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="3">
-        <v>2019</v>
+        <v>1971</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C9" s="5">
-        <v>8.56</v>
+        <v>2.91</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="3">
-        <v>2019</v>
+        <v>1972</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C10" s="5">
-        <v>8.2033333333333331</v>
+        <v>3.0400000000000005</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="3">
-        <v>2019</v>
+        <v>1972</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C11" s="5">
-        <v>8.3166666666666682</v>
+        <v>3.3466666666666671</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="3">
-        <v>2019</v>
+        <v>1972</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C12" s="5">
-        <v>8.629999999999999</v>
+        <v>3.32</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="3">
-        <v>2018</v>
+        <v>1972</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C13" s="5">
-        <v>9.5366666666666671</v>
+        <v>3.4866666666666668</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="3">
-        <v>2018</v>
+        <v>1973</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C14" s="5">
-        <v>9.7466666666666661</v>
+        <v>5.2133333333333338</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="3">
-        <v>2018</v>
+        <v>1973</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C15" s="5">
-        <v>8.8166666666666682</v>
+        <v>8.1366666666666667</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="3">
-        <v>2018</v>
+        <v>1973</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C16" s="5">
-        <v>8.5033333333333321</v>
+        <v>7.1633333333333331</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="3">
-        <v>2017</v>
+        <v>1973</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C17" s="5">
-        <v>9.7533333333333321</v>
+        <v>5.4733333333333336</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="3">
-        <v>2017</v>
+        <v>1974</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C18" s="5">
-        <v>9.24</v>
+        <v>5.9666666666666677</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="3">
-        <v>2017</v>
+        <v>1974</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C19" s="5">
-        <v>9.336666666666666</v>
+        <v>5.1633333333333331</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="3">
-        <v>2017</v>
+        <v>1974</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C20" s="5">
-        <v>9.2333333333333325</v>
+        <v>6.9933333333333332</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="3">
-        <v>2016</v>
+        <v>1974</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C21" s="5">
-        <v>8.5933333333333337</v>
+        <v>7.5466666666666669</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="3">
-        <v>2016</v>
+        <v>1975</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C22" s="5">
-        <v>9.6566666666666663</v>
+        <v>5.7766666666666664</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="3">
-        <v>2016</v>
+        <v>1975</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C23" s="5">
-        <v>9.8466666666666658</v>
+        <v>5.166666666666667</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="3">
-        <v>2016</v>
+        <v>1975</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C24" s="5">
-        <v>9.4700000000000006</v>
+        <v>5.4666666666666659</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="3">
-        <v>2015</v>
+        <v>1975</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C25" s="5">
-        <v>10.020000000000001</v>
+        <v>4.5500000000000007</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="3">
-        <v>2015</v>
+        <v>1976</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C26" s="5">
-        <v>9.6166666666666671</v>
+        <v>4.4733333333333336</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="3">
-        <v>2015</v>
+        <v>1976</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C27" s="5">
-        <v>9.57</v>
+        <v>5.1833333333333336</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="3">
-        <v>2015</v>
+        <v>1976</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C28" s="5">
-        <v>8.75</v>
+        <v>6.4833333333333343</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="3">
-        <v>2014</v>
+        <v>1976</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C29" s="5">
-        <v>13.266666666666666</v>
+        <v>6.19</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="3">
-        <v>2014</v>
+        <v>1977</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C30" s="5">
-        <v>14.333333333333334</v>
+        <v>7.2333333333333334</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="3">
-        <v>2014</v>
+        <v>1977</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C31" s="5">
-        <v>12.133333333333333</v>
+        <v>8.8066666666666666</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="3">
-        <v>2014</v>
+        <v>1977</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C32" s="5">
-        <v>10.156666666666668</v>
+        <v>5.7233333333333336</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="3">
-        <v>2013</v>
+        <v>1977</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C33" s="5">
-        <v>14.5</v>
+        <v>5.5233333333333334</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="3">
-        <v>2013</v>
+        <v>1978</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C34" s="5">
-        <v>14.799999999999999</v>
+        <v>5.8266666666666671</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="3">
-        <v>2013</v>
+        <v>1978</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C35" s="5">
-        <v>14.233333333333334</v>
+        <v>6.6499999999999995</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="3">
-        <v>2013</v>
+        <v>1978</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C36" s="5">
-        <v>12.733333333333334</v>
+        <v>6.27</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="3">
-        <v>2012</v>
+        <v>1978</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C37" s="5">
-        <v>12.366666666666667</v>
+        <v>6.3866666666666667</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="3">
-        <v>2012</v>
+        <v>1979</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C38" s="5">
-        <v>13.9</v>
+        <v>6.91</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="3">
-        <v>2012</v>
+        <v>1979</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C39" s="5">
-        <v>15.300000000000002</v>
+        <v>7.16</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="3">
-        <v>2012</v>
+        <v>1979</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C40" s="5">
-        <v>14.266666666666666</v>
+        <v>7.0799999999999992</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="3">
-        <v>2011</v>
+        <v>1979</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C41" s="5">
-        <v>12.333333333333334</v>
+        <v>6.3066666666666658</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="3">
-        <v>2011</v>
+        <v>1980</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C42" s="5">
-        <v>13.166666666666666</v>
+        <v>6.1766666666666667</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="3">
-        <v>2011</v>
+        <v>1980</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C43" s="5">
-        <v>12.933333333333332</v>
+        <v>5.7666666666666666</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="3">
-        <v>2011</v>
+        <v>1980</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C44" s="5">
-        <v>11.666666666666666</v>
+        <v>7.1733333333333329</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="3">
-        <v>2010</v>
+        <v>1980</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C45" s="5">
-        <v>9.5299999999999994</v>
+        <v>7.8866666666666667</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="3">
-        <v>2010</v>
+        <v>1981</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C46" s="5">
-        <v>9.4433333333333334</v>
+        <v>7.63</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="3">
-        <v>2010</v>
+        <v>1981</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C47" s="5">
-        <v>9.956666666666667</v>
+        <v>7.3500000000000005</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="3">
-        <v>2010</v>
+        <v>1981</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C48" s="5">
-        <v>10.966666666666667</v>
+        <v>6.6833333333333336</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="3">
-        <v>2009</v>
+        <v>1981</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C49" s="5">
-        <v>9.5433333333333312</v>
+        <v>6.0333333333333341</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A50" s="3">
-        <v>2009</v>
+        <v>1982</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C50" s="5">
-        <v>10.63</v>
+        <v>6.0533333333333337</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A51" s="3">
-        <v>2009</v>
+        <v>1982</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C51" s="5">
-        <v>10.450000000000001</v>
+        <v>6.1866666666666665</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A52" s="3">
-        <v>2009</v>
+        <v>1982</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C52" s="5">
-        <v>9.5866666666666678</v>
+        <v>5.6000000000000005</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A53" s="3">
-        <v>2008</v>
+        <v>1982</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C53" s="5">
-        <v>11.016666666666666</v>
+        <v>5.2866666666666662</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A54" s="3">
-        <v>2008</v>
+        <v>1983</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C54" s="5">
-        <v>12.4</v>
+        <v>5.68</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A55" s="3">
-        <v>2008</v>
+        <v>1983</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C55" s="5">
-        <v>12.300000000000002</v>
+        <v>6.0166666666666657</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A56" s="3">
-        <v>2008</v>
+        <v>1983</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C56" s="5">
-        <v>9.5266666666666655</v>
+        <v>7.3733333333333322</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A57" s="3">
-        <v>2007</v>
+        <v>1983</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C57" s="5">
-        <v>6.73</v>
+        <v>7.84</v>
       </c>
     </row>
     <row r="58" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A58" s="3">
-        <v>2007</v>
+        <v>1984</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C58" s="5">
-        <v>7.169999999999999</v>
+        <v>7.6033333333333326</v>
       </c>
     </row>
     <row r="59" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A59" s="3">
-        <v>2007</v>
+        <v>1984</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C59" s="5">
-        <v>7.81</v>
+        <v>7.9799999999999995</v>
       </c>
     </row>
     <row r="60" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A60" s="3">
-        <v>2007</v>
+        <v>1984</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C60" s="5">
-        <v>9.26</v>
+        <v>6.5133333333333328</v>
       </c>
     </row>
     <row r="61" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A61" s="3">
-        <v>2006</v>
+        <v>1984</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C61" s="5">
-        <v>5.7033333333333331</v>
+        <v>5.9666666666666659</v>
       </c>
     </row>
     <row r="62" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A62" s="3">
-        <v>2006</v>
+        <v>1985</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C62" s="5">
-        <v>5.6066666666666665</v>
+        <v>5.8533333333333326</v>
       </c>
     </row>
     <row r="63" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A63" s="3">
-        <v>2006</v>
+        <v>1985</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C63" s="5">
-        <v>5.3566666666666665</v>
+        <v>5.7333333333333334</v>
       </c>
     </row>
     <row r="64" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A64" s="3">
-        <v>2006</v>
+        <v>1985</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C64" s="5">
-        <v>5.9266666666666667</v>
+        <v>5.17</v>
       </c>
     </row>
     <row r="65" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A65" s="3">
-        <v>2005</v>
+        <v>1985</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C65" s="5">
-        <v>5.6466666666666674</v>
+        <v>4.9266666666666667</v>
       </c>
     </row>
     <row r="66" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A66" s="3">
-        <v>2005</v>
+        <v>1986</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C66" s="5">
-        <v>6.2733333333333334</v>
+        <v>5.19</v>
       </c>
     </row>
     <row r="67" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A67" s="3">
-        <v>2005</v>
+        <v>1986</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C67" s="5">
-        <v>6.19</v>
+        <v>5.2233333333333336</v>
       </c>
     </row>
     <row r="68" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A68" s="3">
-        <v>2005</v>
+        <v>1986</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C68" s="5">
-        <v>5.69</v>
+        <v>4.9833333333333334</v>
       </c>
     </row>
     <row r="69" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A69" s="3">
-        <v>2004</v>
+        <v>1986</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C69" s="5">
-        <v>8.3033333333333328</v>
+        <v>4.62</v>
       </c>
     </row>
     <row r="70" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A70" s="3">
-        <v>2004</v>
+        <v>1987</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C70" s="5">
-        <v>9.42</v>
+        <v>4.706666666666667</v>
       </c>
     </row>
     <row r="71" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A71" s="3">
-        <v>2004</v>
+        <v>1987</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C71" s="5">
-        <v>7.04</v>
+        <v>5.1533333333333333</v>
       </c>
     </row>
     <row r="72" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A72" s="3">
-        <v>2004</v>
+        <v>1987</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C72" s="5">
-        <v>5.456666666666667</v>
+        <v>5.0966666666666667</v>
       </c>
     </row>
     <row r="73" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A73" s="3">
-        <v>2003</v>
+        <v>1987</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C73" s="5">
-        <v>5.55</v>
+        <v>5.3433333333333337</v>
       </c>
     </row>
     <row r="74" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A74" s="3">
-        <v>2003</v>
+        <v>1988</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C74" s="5">
-        <v>5.9933333333333332</v>
+        <v>5.913333333333334</v>
       </c>
     </row>
     <row r="75" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A75" s="3">
-        <v>2003</v>
+        <v>1988</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C75" s="5">
-        <v>5.8533333333333326</v>
+        <v>7.1833333333333336</v>
       </c>
     </row>
     <row r="76" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A76" s="3">
-        <v>2003</v>
+        <v>1988</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C76" s="5">
-        <v>6.94</v>
+        <v>8.2533333333333321</v>
       </c>
     </row>
     <row r="77" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A77" s="3">
-        <v>2002</v>
+        <v>1988</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C77" s="5">
-        <v>4.2733333333333334</v>
+        <v>7.496666666666667</v>
       </c>
     </row>
     <row r="78" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A78" s="3">
-        <v>2002</v>
+        <v>1989</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C78" s="5">
-        <v>4.6633333333333331</v>
+        <v>7.5366666666666662</v>
       </c>
     </row>
     <row r="79" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A79" s="3">
-        <v>2002</v>
+        <v>1989</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C79" s="5">
-        <v>5.4233333333333329</v>
+        <v>7.18</v>
       </c>
     </row>
     <row r="80" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A80" s="3">
-        <v>2002</v>
+        <v>1989</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C80" s="5">
-        <v>5.373333333333334</v>
+        <v>6.2</v>
       </c>
     </row>
     <row r="81" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A81" s="3">
-        <v>2001</v>
+        <v>1989</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C81" s="5">
-        <v>4.5100000000000007</v>
+        <v>5.6166666666666671</v>
       </c>
     </row>
     <row r="82" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A82" s="3">
-        <v>2001</v>
+        <v>1990</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C82" s="5">
-        <v>4.3366666666666669</v>
+        <v>5.62</v>
       </c>
     </row>
     <row r="83" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A83" s="3">
-        <v>2001</v>
+        <v>1990</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C83" s="5">
-        <v>4.7233333333333336</v>
+        <v>5.89</v>
       </c>
     </row>
     <row r="84" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A84" s="3">
-        <v>2001</v>
+        <v>1990</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C84" s="5">
-        <v>4.1499999999999995</v>
+        <v>5.9866666666666672</v>
       </c>
     </row>
     <row r="85" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A85" s="3">
-        <v>2000</v>
+        <v>1990</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C85" s="5">
-        <v>4.7733333333333334</v>
+        <v>5.793333333333333</v>
       </c>
     </row>
     <row r="86" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A86" s="3">
-        <v>2000</v>
+        <v>1991</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C86" s="5">
-        <v>5.04</v>
+        <v>5.7066666666666661</v>
       </c>
     </row>
     <row r="87" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A87" s="3">
-        <v>2000</v>
+        <v>1991</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C87" s="5">
-        <v>4.5233333333333334</v>
+        <v>5.666666666666667</v>
       </c>
     </row>
     <row r="88" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A88" s="3">
-        <v>2000</v>
+        <v>1991</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C88" s="5">
-        <v>4.5933333333333337</v>
+        <v>5.5533333333333337</v>
       </c>
     </row>
     <row r="89" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A89" s="3">
-        <v>1999</v>
+        <v>1991</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C89" s="5">
-        <v>4.91</v>
+        <v>5.47</v>
       </c>
     </row>
     <row r="90" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A90" s="3">
-        <v>1999</v>
+        <v>1992</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C90" s="5">
-        <v>4.5233333333333334</v>
+        <v>5.5999999999999988</v>
       </c>
     </row>
     <row r="91" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A91" s="3">
-        <v>1999</v>
+        <v>1992</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C91" s="5">
-        <v>4.3833333333333337</v>
+        <v>5.8233333333333341</v>
       </c>
     </row>
     <row r="92" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A92" s="3">
-        <v>1999</v>
+        <v>1992</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C92" s="5">
-        <v>4.4533333333333331</v>
+        <v>5.45</v>
       </c>
     </row>
     <row r="93" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A93" s="3">
-        <v>1998</v>
+        <v>1992</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C93" s="5">
-        <v>6.5533333333333346</v>
+        <v>5.41</v>
       </c>
     </row>
     <row r="94" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A94" s="3">
-        <v>1998</v>
+        <v>1993</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C94" s="5">
-        <v>6.2266666666666666</v>
+        <v>5.5966666666666667</v>
       </c>
     </row>
     <row r="95" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A95" s="3">
-        <v>1998</v>
+        <v>1993</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C95" s="5">
-        <v>5.6066666666666665</v>
+        <v>5.8133333333333326</v>
       </c>
     </row>
     <row r="96" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A96" s="3">
-        <v>1998</v>
+        <v>1993</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C96" s="5">
-        <v>5.3133333333333335</v>
+        <v>6.4433333333333325</v>
       </c>
     </row>
     <row r="97" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A97" s="3">
-        <v>1997</v>
+        <v>1993</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C97" s="5">
-        <v>7.4933333333333332</v>
+        <v>6.3233333333333333</v>
       </c>
     </row>
     <row r="98" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A98" s="3">
-        <v>1997</v>
+        <v>1994</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C98" s="5">
-        <v>8.2633333333333336</v>
+        <v>6.72</v>
       </c>
     </row>
     <row r="99" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A99" s="3">
-        <v>1997</v>
+        <v>1994</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C99" s="5">
-        <v>7.1633333333333331</v>
+        <v>6.6866666666666665</v>
       </c>
     </row>
     <row r="100" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A100" s="3">
-        <v>1997</v>
+        <v>1994</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C100" s="5">
-        <v>6.69</v>
+        <v>5.6566666666666663</v>
       </c>
     </row>
     <row r="101" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A101" s="3">
-        <v>1996</v>
+        <v>1994</v>
       </c>
       <c r="B101" s="4" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C101" s="5">
-        <v>6.9266666666666667</v>
+        <v>5.3566666666666665</v>
       </c>
     </row>
     <row r="102" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A102" s="3">
-        <v>1996</v>
+        <v>1995</v>
       </c>
       <c r="B102" s="4" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C102" s="5">
-        <v>7.5100000000000007</v>
+        <v>5.4600000000000009</v>
       </c>
     </row>
     <row r="103" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A103" s="3">
-        <v>1996</v>
+        <v>1995</v>
       </c>
       <c r="B103" s="4" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C103" s="5">
-        <v>7.7433333333333332</v>
+        <v>5.5966666666666667</v>
       </c>
     </row>
     <row r="104" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A104" s="3">
-        <v>1996</v>
+        <v>1995</v>
       </c>
       <c r="B104" s="4" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C104" s="5">
-        <v>6.916666666666667</v>
+        <v>5.9033333333333333</v>
       </c>
     </row>
     <row r="105" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
@@ -2487,1146 +2487,1149 @@
         <v>1995</v>
       </c>
       <c r="B105" s="4" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C105" s="5">
-        <v>5.4600000000000009</v>
+        <v>6.44</v>
       </c>
     </row>
     <row r="106" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A106" s="3">
-        <v>1995</v>
+        <v>1996</v>
       </c>
       <c r="B106" s="4" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C106" s="5">
-        <v>5.5966666666666667</v>
+        <v>6.9266666666666667</v>
       </c>
     </row>
     <row r="107" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A107" s="3">
-        <v>1995</v>
+        <v>1996</v>
       </c>
       <c r="B107" s="4" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C107" s="5">
-        <v>5.9033333333333333</v>
+        <v>7.5100000000000007</v>
       </c>
     </row>
     <row r="108" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A108" s="3">
-        <v>1995</v>
+        <v>1996</v>
       </c>
       <c r="B108" s="4" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C108" s="5">
-        <v>6.44</v>
+        <v>7.7433333333333332</v>
       </c>
     </row>
     <row r="109" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A109" s="3">
-        <v>1994</v>
+        <v>1996</v>
       </c>
       <c r="B109" s="4" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C109" s="5">
-        <v>6.72</v>
+        <v>6.916666666666667</v>
       </c>
     </row>
     <row r="110" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A110" s="3">
-        <v>1994</v>
+        <v>1997</v>
       </c>
       <c r="B110" s="4" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C110" s="5">
-        <v>6.6866666666666665</v>
+        <v>7.4933333333333332</v>
       </c>
     </row>
     <row r="111" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A111" s="3">
-        <v>1994</v>
+        <v>1997</v>
       </c>
       <c r="B111" s="4" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C111" s="5">
-        <v>5.6566666666666663</v>
+        <v>8.2633333333333336</v>
       </c>
     </row>
     <row r="112" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A112" s="3">
-        <v>1994</v>
+        <v>1997</v>
       </c>
       <c r="B112" s="4" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C112" s="5">
-        <v>5.3566666666666665</v>
+        <v>7.1633333333333331</v>
       </c>
     </row>
     <row r="113" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A113" s="3">
-        <v>1993</v>
+        <v>1997</v>
       </c>
       <c r="B113" s="4" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C113" s="5">
-        <v>5.5966666666666667</v>
+        <v>6.69</v>
       </c>
     </row>
     <row r="114" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A114" s="3">
-        <v>1993</v>
+        <v>1998</v>
       </c>
       <c r="B114" s="4" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C114" s="5">
-        <v>5.8133333333333326</v>
+        <v>6.5533333333333346</v>
       </c>
     </row>
     <row r="115" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A115" s="3">
-        <v>1993</v>
+        <v>1998</v>
       </c>
       <c r="B115" s="4" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C115" s="5">
-        <v>6.4433333333333325</v>
+        <v>6.2266666666666666</v>
       </c>
     </row>
     <row r="116" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A116" s="3">
-        <v>1993</v>
+        <v>1998</v>
       </c>
       <c r="B116" s="4" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C116" s="5">
-        <v>6.3233333333333333</v>
+        <v>5.6066666666666665</v>
       </c>
     </row>
     <row r="117" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A117" s="3">
-        <v>1992</v>
+        <v>1998</v>
       </c>
       <c r="B117" s="4" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C117" s="5">
-        <v>5.5999999999999988</v>
+        <v>5.3133333333333335</v>
       </c>
     </row>
     <row r="118" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A118" s="3">
-        <v>1992</v>
+        <v>1999</v>
       </c>
       <c r="B118" s="4" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C118" s="5">
-        <v>5.8233333333333341</v>
+        <v>4.91</v>
       </c>
     </row>
     <row r="119" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A119" s="3">
-        <v>1992</v>
+        <v>1999</v>
       </c>
       <c r="B119" s="4" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C119" s="5">
-        <v>5.45</v>
+        <v>4.5233333333333334</v>
       </c>
     </row>
     <row r="120" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A120" s="3">
-        <v>1992</v>
+        <v>1999</v>
       </c>
       <c r="B120" s="4" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C120" s="5">
-        <v>5.41</v>
+        <v>4.3833333333333337</v>
       </c>
     </row>
     <row r="121" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A121" s="3">
-        <v>1991</v>
+        <v>1999</v>
       </c>
       <c r="B121" s="4" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C121" s="5">
-        <v>5.7066666666666661</v>
+        <v>4.4533333333333331</v>
       </c>
     </row>
     <row r="122" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A122" s="3">
-        <v>1991</v>
+        <v>2000</v>
       </c>
       <c r="B122" s="4" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C122" s="5">
-        <v>5.666666666666667</v>
+        <v>4.7733333333333334</v>
       </c>
     </row>
     <row r="123" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A123" s="3">
-        <v>1991</v>
+        <v>2000</v>
       </c>
       <c r="B123" s="4" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C123" s="5">
-        <v>5.5533333333333337</v>
+        <v>5.04</v>
       </c>
     </row>
     <row r="124" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A124" s="3">
-        <v>1991</v>
+        <v>2000</v>
       </c>
       <c r="B124" s="4" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C124" s="5">
-        <v>5.47</v>
+        <v>4.5233333333333334</v>
       </c>
     </row>
     <row r="125" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A125" s="3">
-        <v>1990</v>
+        <v>2000</v>
       </c>
       <c r="B125" s="4" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C125" s="5">
-        <v>5.62</v>
+        <v>4.5933333333333337</v>
       </c>
     </row>
     <row r="126" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A126" s="3">
-        <v>1990</v>
+        <v>2001</v>
       </c>
       <c r="B126" s="4" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C126" s="5">
-        <v>5.89</v>
+        <v>4.5100000000000007</v>
       </c>
     </row>
     <row r="127" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A127" s="3">
-        <v>1990</v>
+        <v>2001</v>
       </c>
       <c r="B127" s="4" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C127" s="5">
-        <v>5.9866666666666672</v>
+        <v>4.3366666666666669</v>
       </c>
     </row>
     <row r="128" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A128" s="3">
-        <v>1990</v>
+        <v>2001</v>
       </c>
       <c r="B128" s="4" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C128" s="5">
-        <v>5.793333333333333</v>
+        <v>4.7233333333333336</v>
       </c>
     </row>
     <row r="129" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A129" s="3">
-        <v>1989</v>
+        <v>2001</v>
       </c>
       <c r="B129" s="4" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C129" s="5">
-        <v>7.5366666666666662</v>
+        <v>4.1499999999999995</v>
       </c>
     </row>
     <row r="130" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A130" s="3">
-        <v>1989</v>
+        <v>2002</v>
       </c>
       <c r="B130" s="4" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C130" s="5">
-        <v>7.18</v>
+        <v>4.2733333333333334</v>
       </c>
     </row>
     <row r="131" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A131" s="3">
-        <v>1989</v>
+        <v>2002</v>
       </c>
       <c r="B131" s="4" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C131" s="5">
-        <v>6.2</v>
+        <v>4.6633333333333331</v>
       </c>
     </row>
     <row r="132" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A132" s="3">
-        <v>1989</v>
+        <v>2002</v>
       </c>
       <c r="B132" s="4" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C132" s="5">
-        <v>5.6166666666666671</v>
+        <v>5.4233333333333329</v>
       </c>
     </row>
     <row r="133" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A133" s="3">
-        <v>1988</v>
+        <v>2002</v>
       </c>
       <c r="B133" s="4" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C133" s="5">
-        <v>5.913333333333334</v>
+        <v>5.373333333333334</v>
       </c>
     </row>
     <row r="134" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A134" s="3">
-        <v>1988</v>
+        <v>2003</v>
       </c>
       <c r="B134" s="4" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C134" s="5">
-        <v>7.1833333333333336</v>
+        <v>5.55</v>
       </c>
     </row>
     <row r="135" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A135" s="3">
-        <v>1988</v>
+        <v>2003</v>
       </c>
       <c r="B135" s="4" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C135" s="5">
-        <v>8.2533333333333321</v>
+        <v>5.9933333333333332</v>
       </c>
     </row>
     <row r="136" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A136" s="3">
-        <v>1988</v>
+        <v>2003</v>
       </c>
       <c r="B136" s="4" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C136" s="5">
-        <v>7.496666666666667</v>
+        <v>5.8533333333333326</v>
       </c>
     </row>
     <row r="137" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A137" s="3">
-        <v>1987</v>
+        <v>2003</v>
       </c>
       <c r="B137" s="4" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C137" s="5">
-        <v>4.706666666666667</v>
+        <v>6.94</v>
       </c>
     </row>
     <row r="138" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A138" s="3">
-        <v>1987</v>
+        <v>2004</v>
       </c>
       <c r="B138" s="4" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C138" s="5">
-        <v>5.1533333333333333</v>
+        <v>8.3033333333333328</v>
       </c>
     </row>
     <row r="139" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A139" s="3">
-        <v>1987</v>
+        <v>2004</v>
       </c>
       <c r="B139" s="4" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C139" s="5">
-        <v>5.0966666666666667</v>
+        <v>9.42</v>
       </c>
     </row>
     <row r="140" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A140" s="3">
-        <v>1987</v>
+        <v>2004</v>
       </c>
       <c r="B140" s="4" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C140" s="5">
-        <v>5.3433333333333337</v>
+        <v>7.04</v>
       </c>
     </row>
     <row r="141" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A141" s="3">
-        <v>1986</v>
+        <v>2004</v>
       </c>
       <c r="B141" s="4" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C141" s="5">
-        <v>5.19</v>
+        <v>5.456666666666667</v>
       </c>
     </row>
     <row r="142" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A142" s="3">
-        <v>1986</v>
+        <v>2005</v>
       </c>
       <c r="B142" s="4" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C142" s="5">
-        <v>5.2233333333333336</v>
+        <v>5.6466666666666674</v>
       </c>
     </row>
     <row r="143" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A143" s="3">
-        <v>1986</v>
+        <v>2005</v>
       </c>
       <c r="B143" s="4" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C143" s="5">
-        <v>4.9833333333333334</v>
+        <v>6.2733333333333334</v>
       </c>
     </row>
     <row r="144" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A144" s="3">
-        <v>1986</v>
+        <v>2005</v>
       </c>
       <c r="B144" s="4" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C144" s="5">
-        <v>4.62</v>
+        <v>6.19</v>
       </c>
     </row>
     <row r="145" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A145" s="3">
-        <v>1985</v>
+        <v>2005</v>
       </c>
       <c r="B145" s="4" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C145" s="5">
-        <v>5.8533333333333326</v>
+        <v>5.69</v>
       </c>
     </row>
     <row r="146" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A146" s="3">
-        <v>1985</v>
+        <v>2006</v>
       </c>
       <c r="B146" s="4" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C146" s="5">
-        <v>5.7333333333333334</v>
+        <v>5.7033333333333331</v>
       </c>
     </row>
     <row r="147" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A147" s="3">
-        <v>1985</v>
+        <v>2006</v>
       </c>
       <c r="B147" s="4" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C147" s="5">
-        <v>5.17</v>
+        <v>5.6066666666666665</v>
       </c>
     </row>
     <row r="148" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A148" s="3">
-        <v>1985</v>
+        <v>2006</v>
       </c>
       <c r="B148" s="4" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C148" s="5">
-        <v>4.9266666666666667</v>
+        <v>5.3566666666666665</v>
       </c>
     </row>
     <row r="149" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A149" s="3">
-        <v>1984</v>
+        <v>2006</v>
       </c>
       <c r="B149" s="4" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C149" s="5">
-        <v>7.6033333333333326</v>
+        <v>5.9266666666666667</v>
       </c>
     </row>
     <row r="150" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A150" s="3">
-        <v>1984</v>
+        <v>2007</v>
       </c>
       <c r="B150" s="4" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C150" s="5">
-        <v>7.9799999999999995</v>
+        <v>6.73</v>
       </c>
     </row>
     <row r="151" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A151" s="3">
-        <v>1984</v>
+        <v>2007</v>
       </c>
       <c r="B151" s="4" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C151" s="5">
-        <v>6.5133333333333328</v>
+        <v>7.169999999999999</v>
       </c>
     </row>
     <row r="152" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A152" s="3">
-        <v>1984</v>
+        <v>2007</v>
       </c>
       <c r="B152" s="4" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C152" s="5">
-        <v>5.9666666666666659</v>
+        <v>7.81</v>
       </c>
     </row>
     <row r="153" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A153" s="3">
-        <v>1983</v>
+        <v>2007</v>
       </c>
       <c r="B153" s="4" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C153" s="5">
-        <v>5.68</v>
+        <v>9.26</v>
       </c>
     </row>
     <row r="154" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A154" s="3">
-        <v>1983</v>
+        <v>2008</v>
       </c>
       <c r="B154" s="4" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C154" s="5">
-        <v>6.0166666666666657</v>
+        <v>11.016666666666666</v>
       </c>
     </row>
     <row r="155" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A155" s="3">
-        <v>1983</v>
+        <v>2008</v>
       </c>
       <c r="B155" s="4" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C155" s="5">
-        <v>7.3733333333333322</v>
+        <v>12.4</v>
       </c>
     </row>
     <row r="156" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A156" s="3">
-        <v>1983</v>
+        <v>2008</v>
       </c>
       <c r="B156" s="4" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C156" s="5">
-        <v>7.84</v>
+        <v>12.300000000000002</v>
       </c>
     </row>
     <row r="157" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A157" s="3">
-        <v>1982</v>
+        <v>2008</v>
       </c>
       <c r="B157" s="4" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C157" s="5">
-        <v>6.0533333333333337</v>
+        <v>9.5266666666666655</v>
       </c>
     </row>
     <row r="158" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A158" s="3">
-        <v>1982</v>
+        <v>2009</v>
       </c>
       <c r="B158" s="4" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C158" s="5">
-        <v>6.1866666666666665</v>
+        <v>9.5433333333333312</v>
       </c>
     </row>
     <row r="159" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A159" s="3">
-        <v>1982</v>
+        <v>2009</v>
       </c>
       <c r="B159" s="4" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C159" s="5">
-        <v>5.6000000000000005</v>
+        <v>10.63</v>
       </c>
     </row>
     <row r="160" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A160" s="3">
-        <v>1982</v>
+        <v>2009</v>
       </c>
       <c r="B160" s="4" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C160" s="5">
-        <v>5.2866666666666662</v>
+        <v>10.450000000000001</v>
       </c>
     </row>
     <row r="161" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A161" s="3">
-        <v>1981</v>
+        <v>2009</v>
       </c>
       <c r="B161" s="4" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C161" s="5">
-        <v>7.63</v>
+        <v>9.5866666666666678</v>
       </c>
     </row>
     <row r="162" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A162" s="3">
-        <v>1981</v>
+        <v>2010</v>
       </c>
       <c r="B162" s="4" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C162" s="5">
-        <v>7.3500000000000005</v>
+        <v>9.5299999999999994</v>
       </c>
     </row>
     <row r="163" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A163" s="3">
-        <v>1981</v>
+        <v>2010</v>
       </c>
       <c r="B163" s="4" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C163" s="5">
-        <v>6.6833333333333336</v>
+        <v>9.4433333333333334</v>
       </c>
     </row>
     <row r="164" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A164" s="3">
-        <v>1981</v>
+        <v>2010</v>
       </c>
       <c r="B164" s="4" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C164" s="5">
-        <v>6.0333333333333341</v>
+        <v>9.956666666666667</v>
       </c>
     </row>
     <row r="165" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A165" s="3">
-        <v>1980</v>
+        <v>2010</v>
       </c>
       <c r="B165" s="4" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C165" s="5">
-        <v>6.1766666666666667</v>
+        <v>10.966666666666667</v>
       </c>
     </row>
     <row r="166" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A166" s="3">
-        <v>1980</v>
+        <v>2011</v>
       </c>
       <c r="B166" s="4" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C166" s="5">
-        <v>5.7666666666666666</v>
+        <v>12.333333333333334</v>
       </c>
     </row>
     <row r="167" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A167" s="3">
-        <v>1980</v>
+        <v>2011</v>
       </c>
       <c r="B167" s="4" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C167" s="5">
-        <v>7.1733333333333329</v>
+        <v>13.166666666666666</v>
       </c>
     </row>
     <row r="168" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A168" s="3">
-        <v>1980</v>
+        <v>2011</v>
       </c>
       <c r="B168" s="4" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C168" s="5">
-        <v>7.8866666666666667</v>
+        <v>12.933333333333332</v>
       </c>
     </row>
     <row r="169" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A169" s="3">
-        <v>1979</v>
+        <v>2011</v>
       </c>
       <c r="B169" s="4" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C169" s="5">
-        <v>6.91</v>
+        <v>11.666666666666666</v>
       </c>
     </row>
     <row r="170" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A170" s="3">
-        <v>1979</v>
+        <v>2012</v>
       </c>
       <c r="B170" s="4" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C170" s="5">
-        <v>7.16</v>
+        <v>12.366666666666667</v>
       </c>
     </row>
     <row r="171" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A171" s="3">
-        <v>1979</v>
+        <v>2012</v>
       </c>
       <c r="B171" s="4" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C171" s="5">
-        <v>7.0799999999999992</v>
+        <v>13.9</v>
       </c>
     </row>
     <row r="172" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A172" s="3">
-        <v>1979</v>
+        <v>2012</v>
       </c>
       <c r="B172" s="4" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C172" s="5">
-        <v>6.3066666666666658</v>
+        <v>15.300000000000002</v>
       </c>
     </row>
     <row r="173" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A173" s="3">
-        <v>1978</v>
+        <v>2012</v>
       </c>
       <c r="B173" s="4" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C173" s="5">
-        <v>5.8266666666666671</v>
+        <v>14.266666666666666</v>
       </c>
     </row>
     <row r="174" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A174" s="3">
-        <v>1978</v>
+        <v>2013</v>
       </c>
       <c r="B174" s="4" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C174" s="5">
-        <v>6.6499999999999995</v>
+        <v>14.5</v>
       </c>
     </row>
     <row r="175" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A175" s="3">
-        <v>1978</v>
+        <v>2013</v>
       </c>
       <c r="B175" s="4" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C175" s="5">
-        <v>6.27</v>
+        <v>14.799999999999999</v>
       </c>
     </row>
     <row r="176" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A176" s="3">
-        <v>1978</v>
+        <v>2013</v>
       </c>
       <c r="B176" s="4" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C176" s="5">
-        <v>6.3866666666666667</v>
+        <v>14.233333333333334</v>
       </c>
     </row>
     <row r="177" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A177" s="3">
-        <v>1977</v>
+        <v>2013</v>
       </c>
       <c r="B177" s="4" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C177" s="5">
-        <v>7.2333333333333334</v>
+        <v>12.733333333333334</v>
       </c>
     </row>
     <row r="178" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A178" s="3">
-        <v>1977</v>
+        <v>2014</v>
       </c>
       <c r="B178" s="4" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C178" s="5">
-        <v>8.8066666666666666</v>
+        <v>13.266666666666666</v>
       </c>
     </row>
     <row r="179" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A179" s="3">
-        <v>1977</v>
+        <v>2014</v>
       </c>
       <c r="B179" s="4" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C179" s="5">
-        <v>5.7233333333333336</v>
+        <v>14.333333333333334</v>
       </c>
     </row>
     <row r="180" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A180" s="3">
-        <v>1977</v>
+        <v>2014</v>
       </c>
       <c r="B180" s="4" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C180" s="5">
-        <v>5.5233333333333334</v>
+        <v>12.133333333333333</v>
       </c>
     </row>
     <row r="181" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A181" s="3">
-        <v>1976</v>
+        <v>2014</v>
       </c>
       <c r="B181" s="4" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C181" s="5">
-        <v>4.4733333333333336</v>
+        <v>10.156666666666668</v>
       </c>
     </row>
     <row r="182" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A182" s="3">
-        <v>1976</v>
+        <v>2015</v>
       </c>
       <c r="B182" s="4" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C182" s="5">
-        <v>5.1833333333333336</v>
+        <v>10.020000000000001</v>
       </c>
     </row>
     <row r="183" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A183" s="3">
-        <v>1976</v>
+        <v>2015</v>
       </c>
       <c r="B183" s="4" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C183" s="5">
-        <v>6.4833333333333343</v>
+        <v>9.6166666666666671</v>
       </c>
     </row>
     <row r="184" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A184" s="3">
-        <v>1976</v>
+        <v>2015</v>
       </c>
       <c r="B184" s="4" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C184" s="5">
-        <v>6.19</v>
+        <v>9.57</v>
       </c>
     </row>
     <row r="185" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A185" s="3">
-        <v>1975</v>
+        <v>2015</v>
       </c>
       <c r="B185" s="4" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C185" s="5">
-        <v>5.7766666666666664</v>
+        <v>8.75</v>
       </c>
     </row>
     <row r="186" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A186" s="3">
-        <v>1975</v>
+        <v>2016</v>
       </c>
       <c r="B186" s="4" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C186" s="5">
-        <v>5.166666666666667</v>
+        <v>8.5933333333333337</v>
       </c>
     </row>
     <row r="187" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A187" s="3">
-        <v>1975</v>
+        <v>2016</v>
       </c>
       <c r="B187" s="4" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C187" s="5">
-        <v>5.4666666666666659</v>
+        <v>9.6566666666666663</v>
       </c>
     </row>
     <row r="188" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A188" s="3">
-        <v>1975</v>
+        <v>2016</v>
       </c>
       <c r="B188" s="4" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C188" s="5">
-        <v>4.5500000000000007</v>
+        <v>9.8466666666666658</v>
       </c>
     </row>
     <row r="189" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A189" s="3">
-        <v>1974</v>
+        <v>2016</v>
       </c>
       <c r="B189" s="4" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C189" s="5">
-        <v>5.9666666666666677</v>
+        <v>9.4700000000000006</v>
       </c>
     </row>
     <row r="190" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A190" s="3">
-        <v>1974</v>
+        <v>2017</v>
       </c>
       <c r="B190" s="4" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C190" s="5">
-        <v>5.1633333333333331</v>
+        <v>9.7533333333333321</v>
       </c>
     </row>
     <row r="191" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A191" s="3">
-        <v>1974</v>
+        <v>2017</v>
       </c>
       <c r="B191" s="4" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C191" s="5">
-        <v>6.9933333333333332</v>
+        <v>9.24</v>
       </c>
     </row>
     <row r="192" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A192" s="3">
-        <v>1974</v>
+        <v>2017</v>
       </c>
       <c r="B192" s="4" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C192" s="5">
-        <v>7.5466666666666669</v>
+        <v>9.336666666666666</v>
       </c>
     </row>
     <row r="193" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A193" s="3">
-        <v>1973</v>
+        <v>2017</v>
       </c>
       <c r="B193" s="4" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C193" s="5">
-        <v>5.2133333333333338</v>
+        <v>9.2333333333333325</v>
       </c>
     </row>
     <row r="194" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A194" s="3">
-        <v>1973</v>
+        <v>2018</v>
       </c>
       <c r="B194" s="4" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C194" s="5">
-        <v>8.1366666666666667</v>
+        <v>9.5366666666666671</v>
       </c>
     </row>
     <row r="195" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A195" s="3">
-        <v>1973</v>
+        <v>2018</v>
       </c>
       <c r="B195" s="4" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C195" s="5">
-        <v>7.1633333333333331</v>
+        <v>9.7466666666666661</v>
       </c>
     </row>
     <row r="196" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A196" s="3">
-        <v>1973</v>
+        <v>2018</v>
       </c>
       <c r="B196" s="4" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C196" s="5">
-        <v>5.4733333333333336</v>
+        <v>8.8166666666666682</v>
       </c>
     </row>
     <row r="197" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A197" s="3">
-        <v>1972</v>
+        <v>2018</v>
       </c>
       <c r="B197" s="4" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C197" s="5">
-        <v>3.0400000000000005</v>
+        <v>8.5033333333333321</v>
       </c>
     </row>
     <row r="198" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A198" s="3">
-        <v>1972</v>
+        <v>2019</v>
       </c>
       <c r="B198" s="4" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C198" s="5">
-        <v>3.3466666666666671</v>
+        <v>8.56</v>
       </c>
     </row>
     <row r="199" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A199" s="3">
-        <v>1972</v>
+        <v>2019</v>
       </c>
       <c r="B199" s="4" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C199" s="5">
-        <v>3.32</v>
+        <v>8.2033333333333331</v>
       </c>
     </row>
     <row r="200" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A200" s="3">
-        <v>1972</v>
+        <v>2019</v>
       </c>
       <c r="B200" s="4" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C200" s="5">
-        <v>3.4866666666666668</v>
+        <v>8.3166666666666682</v>
       </c>
     </row>
     <row r="201" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A201" s="3">
-        <v>1971</v>
+        <v>2019</v>
       </c>
       <c r="B201" s="4" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C201" s="5">
-        <v>2.8966666666666665</v>
+        <v>8.629999999999999</v>
       </c>
     </row>
     <row r="202" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A202" s="3">
-        <v>1971</v>
+        <v>2020</v>
       </c>
       <c r="B202" s="4" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C202" s="5">
-        <v>2.8766666666666669</v>
+        <v>8.84</v>
       </c>
     </row>
     <row r="203" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A203" s="3">
-        <v>1971</v>
+        <v>2020</v>
       </c>
       <c r="B203" s="4" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C203" s="5">
-        <v>3.0733333333333328</v>
+        <v>8.34</v>
       </c>
     </row>
     <row r="204" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A204" s="3">
-        <v>1971</v>
+        <v>2020</v>
       </c>
       <c r="B204" s="4" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C204" s="5">
-        <v>2.91</v>
+        <v>8.7999999999999989</v>
       </c>
     </row>
     <row r="205" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A205" s="3">
-        <v>1970</v>
+        <v>2020</v>
       </c>
       <c r="B205" s="4" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C205" s="5">
-        <v>2.3933333333333331</v>
+        <v>10.176666666666668</v>
       </c>
     </row>
     <row r="206" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A206" s="3">
-        <v>1970</v>
+        <v>2021</v>
       </c>
       <c r="B206" s="4" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C206" s="5">
-        <v>2.5333333333333332</v>
+        <v>12.266666666666666</v>
       </c>
     </row>
     <row r="207" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A207" s="3">
-        <v>1970</v>
+        <v>2021</v>
       </c>
       <c r="B207" s="4" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C207" s="5">
-        <v>2.6766666666666672</v>
+        <v>14.4</v>
       </c>
     </row>
     <row r="208" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A208" s="3">
-        <v>1970</v>
+        <v>2021</v>
       </c>
       <c r="B208" s="4" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C208" s="5">
-        <v>2.8000000000000003</v>
+        <v>13.333333333333334</v>
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C208">
+    <sortCondition ref="A2:A208"/>
+  </sortState>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
   <pageSetup orientation="portrait"/>
   <headerFooter>

--- a/data/USDA precio soja u$d x bushel SOYBEANS - PRICE RECEIVED, MEASURED listo.xlsx
+++ b/data/USDA precio soja u$d x bushel SOYBEANS - PRICE RECEIVED, MEASURED listo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/GoogleDrive-113626893456251289633/Mi unidad/UCA Sincronizado/UCA Proyecto de TESIS/Estadísticas/Github/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F8589D2-CA44-1D46-91C9-37C520C4811C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00C13453-4844-A04B-B710-9F44E49DE7EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="15960" windowHeight="14900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1324,10 +1324,10 @@
   <dimension ref="A1:C208"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="183" zoomScaleNormal="210" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C198" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C129" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="F7" sqref="F7"/>
+      <selection pane="bottomRight" activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.33203125" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.15"/>
